--- a/Processed Results/Mi 9T/GPS/GPS - Processed.xlsx
+++ b/Processed Results/Mi 9T/GPS/GPS - Processed.xlsx
@@ -1,33 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\GPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685B1683-D9BF-4B1A-8983-41560DEE7C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8827437A-4B66-4F58-83AA-0D20D67400BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="100" windowWidth="9990" windowHeight="7360" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Blad1!$B$33</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Blad1!$B$34:$B$63</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$A$66:$A$95</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$B$65</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$66:$B$95</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Blad1!$A$34:$A$63</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$66:$A$95</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$65</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$B$66:$B$95</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$A$34:$A$63</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$B$33</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$B$34:$B$63</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Blad1!$A$98:$A$187</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Blad1!$B$98:$B$187</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="20">
   <si>
     <t>Mean line</t>
   </si>
@@ -101,6 +99,12 @@
   </si>
   <si>
     <t>Relative std</t>
+  </si>
+  <si>
+    <t>Mean increase</t>
+  </si>
+  <si>
+    <t>Median increase</t>
   </si>
 </sst>
 </file>
@@ -2098,10 +2102,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2220,10 +2224,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2341,10 +2345,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2382,7 +2386,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3F5A16A3-6E4C-4475-A634-1322A70DC713}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Medium_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2469,10 +2473,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2510,7 +2514,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{138ACD3C-CAEA-4AEF-B3DF-B982F1EA92CC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>High_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7202,10 +7206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE0459-F6C0-45BE-AD60-56F63431C3F0}">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B185" activeCellId="2" sqref="B187 B186 B98:B185"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7419,7 +7423,7 @@
         <v>1.0433032890515661</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -7427,23 +7431,37 @@
         <v>98.500535999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1">
         <v>96.914375999999905</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1">
         <v>97.707455999999993</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <f xml:space="preserve"> ((E3 / 95.321842) * 100) - 100</f>
+        <v>2.8022148376024631</v>
+      </c>
+      <c r="F19">
+        <f xml:space="preserve"> ((E10 / 95.22216) * 100) - 100</f>
+        <v>2.6099975047824842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -7451,7 +7469,7 @@
         <v>96.914375999999905</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -7459,7 +7477,7 @@
         <v>97.231607999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -7467,7 +7485,7 @@
         <v>98.341920000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -7475,7 +7493,7 @@
         <v>97.707455999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -7483,7 +7501,7 @@
         <v>99.135000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -7491,7 +7509,7 @@
         <v>99.293615999999901</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7499,7 +7517,7 @@
         <v>97.390224000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -7507,7 +7525,7 @@
         <v>97.231607999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -7515,7 +7533,7 @@
         <v>97.707455999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -7523,7 +7541,7 @@
         <v>97.548839999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -7531,7 +7549,7 @@
         <v>98.976383999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -7539,7 +7557,7 @@
         <v>97.548839999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -7746,7 +7764,7 @@
         <v>0.73040929497315688</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -7754,23 +7772,37 @@
         <v>97.496424000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="1">
         <v>98.450711999999996</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="1">
         <v>97.655471999999904</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <f xml:space="preserve"> ((E35 / 95.321842) * 100) - 100</f>
+        <v>3.0988880806562378</v>
+      </c>
+      <c r="F51">
+        <f xml:space="preserve"> ((E42 / 95.22216) * 100) - 100</f>
+        <v>3.1400043855337856</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -7778,7 +7810,7 @@
         <v>97.973568</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -7786,7 +7818,7 @@
         <v>98.450711999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -7794,7 +7826,7 @@
         <v>99.245952000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -7802,7 +7834,7 @@
         <v>98.450711999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -7810,7 +7842,7 @@
         <v>97.019279999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -7818,7 +7850,7 @@
         <v>98.291663999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -7826,7 +7858,7 @@
         <v>98.132615999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -7834,7 +7866,7 @@
         <v>97.973568</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -7842,7 +7874,7 @@
         <v>97.019279999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -7850,7 +7882,7 @@
         <v>97.973568</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -7858,7 +7890,7 @@
         <v>100.20023999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -7866,7 +7898,7 @@
         <v>98.609759999999994</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -8073,7 +8105,7 @@
         <v>0.82876515164997633</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -8081,23 +8113,37 @@
         <v>99.109331999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="1">
         <v>97.677576000000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="1">
         <v>98.154827999999995</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <f>((E67 / 95.321842) * 100) - 100</f>
+        <v>3.7285964322846041</v>
+      </c>
+      <c r="F83">
+        <f xml:space="preserve"> ((E74 / 95.22216) * 100) - 100</f>
+        <v>3.748081328967956</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -8105,7 +8151,7 @@
         <v>98.313911999999902</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -8113,7 +8159,7 @@
         <v>99.268416000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -8121,7 +8167,7 @@
         <v>98.791163999999995</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -8129,7 +8175,7 @@
         <v>99.268416000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -8137,7 +8183,7 @@
         <v>99.427499999999995</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -8145,7 +8191,7 @@
         <v>98.472995999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -8153,7 +8199,7 @@
         <v>98.313911999999902</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -8161,7 +8207,7 @@
         <v>99.745667999999895</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -8169,7 +8215,7 @@
         <v>98.313911999999902</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -8177,7 +8223,7 @@
         <v>99.427499999999995</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -8185,7 +8231,7 @@
         <v>97.836659999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -8193,7 +8239,7 @@
         <v>98.632080000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8321,23 +8367,37 @@
         <v>96.597144</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>10</v>
       </c>
       <c r="B113" s="1">
         <v>98.500535999999997</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114" s="1">
         <v>96.914375999999905</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D114">
+        <f xml:space="preserve"> (D19 + D51 + D83) / 3</f>
+        <v>3.2098997835144352</v>
+      </c>
+      <c r="F114">
+        <f xml:space="preserve"> (F19 + F51 + F83) / 3</f>
+        <v>3.1660277397614087</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -8345,7 +8405,7 @@
         <v>97.707455999999993</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -8353,7 +8413,7 @@
         <v>96.914375999999905</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -8361,7 +8421,7 @@
         <v>97.231607999999994</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -8369,7 +8429,7 @@
         <v>98.341920000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -8377,7 +8437,7 @@
         <v>97.707455999999993</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -8385,7 +8445,7 @@
         <v>99.135000000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -8393,7 +8453,7 @@
         <v>99.293615999999901</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -8401,7 +8461,7 @@
         <v>97.390224000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -8409,7 +8469,7 @@
         <v>97.231607999999994</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -8417,7 +8477,7 @@
         <v>97.707455999999993</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -8425,7 +8485,7 @@
         <v>97.548839999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -8433,7 +8493,7 @@
         <v>98.976383999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -8441,7 +8501,7 @@
         <v>97.548839999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>12</v>
       </c>
